--- a/VerveStacks_USA/SuppXLS/scen_tsparameters_ts_triple5-2w.xlsx
+++ b/VerveStacks_USA/SuppXLS/scen_tsparameters_ts_triple5-2w.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_USA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFF53F4-A4E4-47E5-A23D-8AB1D66EC7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4D53AD-7A4B-4FD2-B7B6-2C7CFA5E76BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -4563,10 +4563,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S1b0115h12,S1c0119h13,S1c0119h14,S2d0217h13,S4g0401h11,S4h0405h07,S4h0405h17,S4i0411h07,S5l0515h15,S5l0515h16,S5l0515h17,S6n1217h16,S6o1220h11,S6q0927h09,S6q0927h10,S6q0930h12,S6r1203h13,S6r1203h17,S6r1204h13,S6r1206h17,S6r1207h15,S6r1207h17,S6r1209h08,S1b0115h14,S2d0217h09,S2d0217h16,S2e0219h08,S3f0328h08,S4g0401h12,S4i0411h09,S6o1220h08,S6p1229h13,S6p1229h14,S6q0925h14,S6q0926h12,S6q0926h15,S6q0927h12,S6r1203h16,S6r1204h09,S6r1205h17,S6r1206h15,S6r1207h07,S6r1208h10,S6r1209h17,S1aH4,S1b0115h09,S2aH2,S2d0217h10,S2d0217h14,S2e0219h18,S3f0328h16,S4aH6,S4h0405h13,S4h0405h16,S4h0405h18,S4i0411h15,S4j0413h08,S4j0413h14,S5l0515h07,S5l0515h09,S6o1220h12,S6p1229h11,S6p1229h17,S6q0930h07,S6q0930h08,S6r1204h15,S6r1205h13,S6r1206h12,S6r1209h13,S6r1209h18,S1b0115h15,S2e0219h16,S2e0219h17,S4aH5,S4h0405h11,S4i0411h18,S4k0423h17,S6o1220h16,S6p1229h18,S6q0924h09,S6q0927h07,S6q0928h10,S6q0929h15,S6r1203h07,S6r1205h12,S6r1206h16,S6r1207h14,S6r1208h08,S1aH6,S1c0119h10,S4h0405h15,S4i0411h14,S4j0413h07,S6n1217h08,S6n1217h12,S6p1229h12,S6q0927h14,S6q0927h15,S6q0927h17,S6q0929h07,S6q0929h11,S6r1203h14,S6r1203h15,S6r1204h17,S6r1208h07,S6r1208h15,S6r1208h18,S6r1209h10,S1b0115h13,S2d0217h12,S2e0219h07,S2e0219h11,S2e0219h15,S3f0328h17,S4g0401h16,S4i0411h13,S4i0411h17,S4k0423h14,S5aH4,S6aH3,S6aH4,S6o1220h10,S6p1229h08,S6q0925h12,S6q0925h13,S6q0926h13,S6q0927h08,S6q0928h08,S6q0928h12,S6q0930h10,S6r1204h11,S6r1205h08,S6r1206h08,S6r1209h07,S2d0217h11,S4g0401h17,S4g0401h18,S4h0405h08,S4j0413h10,S4j0413h13,S5l0515h08,S6n1217h13,S6o1220h09,S6o1220h17,S6p1229h16,S6q0924h11,S6q0925h07,S6q0925h11,S6q0926h08,S6q0928h16,S6q0930h17,S6r1204h16,S6r1204h18,S6r1205h14,S6r1206h07,S6r1206h13,S6r1207h09,S1b0115h11,S1c0119h07,S1c0119h08,S2d0217h07,S2d0217h15,S2e0219h13,S4aH2,S4h0405h12,S6n1217h11,S6o1220h07,S6q0924h13,S6q0925h10,S6q0927h11,S6q0928h09,S6q0928h17,S6q0930h14,S6r1204h10,S6r1205h10,S6r1205h15,S6r1207h10,S6r1207h16,S6r1209h15,S1aH2,S1b0115h07,S1b0115h08,S1b0115h17,S2aH3,S2d0217h17,S3aH6,S4i0411h16,S4j0413h12,S4k0423h11,S5aH6,S6aH6,S6n1217h14,S6q0925h09,S6q0925h16,S6q0925h17,S6q0929h12,S6r1203h08,S6r1203h11,S6r1204h07,S6r1205h16,S1c0119h17,S3aH3,S3f0328h14,S4g0401h09,S4h0405h14,S4i0411h10,S4i0411h11,S4i0411h12,S4j0413h09,S4k0423h07,S4k0423h09,S4k0423h16,S5l0515h12,S6n1217h07,S6n1217h17,S6q0925h08,S6q0926h14,S6q0929h14,S6r1204h14,S6r1205h11,S6r1207h18,S6r1208h11,S6r1209h16,S1b0115h18,S1c0119h11,S1c0119h12,S2e0219h14,S3f0328h07,S4g0401h07,S6aH5,S6q0924h07,S6q0924h16,S6q0925h15,S6q0928h13,S6q0930h11,S6q0930h13,S6q0930h18,S6r1204h12,S6r1205h07,S6r1206h09,S6r1207h11,S6r1208h17,S6r1209h14,S1aH5,S1b0115h10,S1b0115h16,S1c0119h16,S2aH4,S2aH5,S2d0217h08,S3f0328h11,S3f0328h18,S4g0401h08,S4g0401h14,S4h0405h10,S4j0413h18,S4k0423h12,S5aH2,S5aH5,S5l0515h14,S5l0515h18,S6aH2,S6p1229h10,S6q0924h18,S6q0926h11,S6q0927h18,S6r1203h09,S6r1205h09,S6r1208h09,S1c0119h09,S3f0328h09,S4g0401h15,S4h0405h09,S4i0411h08,S6n1217h18,S6p1229h09,S6q0924h15,S6q0926h18,S6q0928h07,S6q0928h11,S6q0929h09,S6q0929h18,S6q0930h09,S6r1204h08,S6r1205h18,S6r1206h14,S6r1207h12,S6r1209h09,S6r1209h12,S2d0217h18,S2e0219h09,S3aH4,S3f0328h10,S3f0328h13,S3f0328h15,S4aH3,S4aH4,S4j0413h15,S4j0413h17,S4k0423h10,S5l0515h10,S5l0515h11,S6n1217h09,S6o1220h13,S6o1220h15,S6q0924h10,S6q0924h12,S6q0925h18,S6q0926h07,S6q0926h16,S6q0927h13,S6q0928h15,S6q0928h18,S6q0930h15,S6q0930h16,S6r1203h10,S6r1207h08,S1c0119h15,S2e0219h10,S3aH2,S4j0413h11,S4j0413h16,S4k0423h18,S6n1217h10,S6n1217h15,S6o1220h14,S6q0924h08,S6q0924h14,S6q0924h17,S6q0926h09,S6q0927h16,S6q0928h14,S6q0929h08,S6q0929h10,S6q0929h17,S6r1203h12,S6r1208h16,S1c0119h18,S2aH6,S2e0219h12,S3aH5,S3f0328h12,S4g0401h10,S4g0401h13,S4k0423h08,S4k0423h13,S4k0423h15,S5aH3,S5l0515h13,S6o1220h18,S6p1229h07,S6p1229h15,S6q0926h10,S6q0926h17,S6q0929h13,S6q0929h16,S6r1203h18,S6r1206h10,S6r1206h11,S6r1206h18,S6r1207h13,S6r1208h12,S6r1208h13,S6r1208h14,S6r1209h11</t>
-  </si>
-  <si>
-    <t>S1aH7,S1b0115h01,S2d0217h04,S2d0217h24,S3f0328h02,S4aH7,S4g0401h23,S4h0405h19,S4h0405h23,S4i0411h06,S4i0411h22,S4j0413h21,S5aH7,S6n1217h05,S6q0925h01,S6q0926h01,S6q0926h06,S6q0927h05,S6q0927h24,S6q0929h03,S6q0930h02,S6q0930h20,S6r1203h03,S6r1203h22,S6r1204h04,S6r1205h24,S6r1206h01,S6r1206h06,S6r1206h19,S6r1208h01,S1b0115h03,S1c0119h06,S2aH8,S3f0328h21,S4i0411h04,S4j0413h22,S4k0423h04,S4k0423h05,S4k0423h06,S6o1220h20,S6o1220h24,S6p1229h06,S6q0924h19,S6q0927h01,S6q0928h20,S6q0930h23,S6r1204h23,S6r1205h06,S6r1207h19,S6r1208h02,S6r1209h03,S2d0217h19,S2e0219h21,S3f0328h20,S4aH1,S4g0401h05,S4h0405h03,S4i0411h21,S4j0413h03,S4j0413h06,S5l0515h01,S5l0515h02,S5l0515h19,S5l0515h23,S6aH1,S6o1220h21,S6p1229h23,S6q0930h03,S6r1208h24,S6r1209h02,S6r1209h24,S1c0119h01,S2d0217h03,S3f0328h22,S4g0401h04,S6o1220h22,S6p1229h24,S6q0924h01,S6q0924h02,S6q0928h21,S6q0929h01,S6q0929h23,S6r1204h01,S6r1204h21,S6r1205h01,S6r1207h22,S6r1209h06,S1b0115h21,S2d0217h23,S4g0401h22,S4h0405h05,S4j0413h19,S4j0413h24,S4k0423h22,S4k0423h23,S4k0423h24,S6aH8,S6n1217h24,S6o1220h02,S6o1220h04,S6o1220h19,S6q0925h06,S6q0926h03,S6q0926h05,S6q0926h20,S6q0926h24,S6q0927h03,S6q0928h19,S6q0929h04,S6r1203h05,S6r1205h05,S6r1205h19,S6r1206h03,S6r1209h01,S2e0219h22,S4g0401h24,S4h0405h02,S4h0405h06,S4j0413h23,S4k0423h21,S6p1229h19,S6q0925h03,S6q0927h06,S6q0930h01,S6r1203h01,S6r1204h22,S6r1205h22,S6r1206h02,S6r1207h03,S6r1208h03,S6r1209h19,S6r1209h23,S1b0115h02,S3aH1,S3f0328h03,S4i0411h05,S4j0413h02,S5l0515h22,S6o1220h05,S6p1229h02,S6q0924h20,S6q0925h19,S6q0928h23,S6q0929h02,S6r1204h06,S6r1205h04,S6r1207h21,S6r1207h24,S6r1208h06,S6r1208h20,S1c0119h22,S1c0119h23,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S2e0219h03,S3aH7,S3f0328h19,S4g0401h20,S5aH8,S5l0515h24,S6n1217h20,S6p1229h03,S6p1229h04,S6q0924h22,S6q0925h02,S6q0925h20,S6q0926h22,S6q0928h03,S6q0929h06,S6q0930h24,S6r1203h06,S6r1206h23,S6r1208h04,S6r1208h19,S6r1208h22,S1b0115h05,S1b0115h20,S1b0115h24,S1c0119h21,S2d0217h21,S2e0219h20,S3f0328h06,S4h0405h21,S4j0413h05,S5l0515h20,S6n1217h21,S6o1220h06,S6p1229h22,S6q0924h04,S6q0928h02,S6q0930h05,S6r1203h19,S6r1204h24,S6r1205h02,S6r1207h01,S6r1208h21,S1c0119h05,S1c0119h24,S2d0217h01,S2e0219h02,S2e0219h04,S2e0219h24,S4i0411h03,S4i0411h19,S5l0515h03,S5l0515h06,S6n1217h01,S6n1217h19,S6o1220h03,S6q0927h23,S6q0929h05,S6q0930h04,S6r1205h20,S6r1207h23,S6r1209h20,S1c0119h03,S2d0217h20,S2e0219h05,S2e0219h19,S3f0328h01,S4aH8,S4g0401h02,S4g0401h21,S4i0411h23,S4k0423h01,S4k0423h02,S5l0515h04,S6n1217h02,S6n1217h06,S6n1217h22,S6o1220h23,S6p1229h21,S6q0928h04,S6r1203h02,S6r1203h04,S6r1203h20,S6r1203h21,S6r1203h24,S6r1205h21,S6r1207h02,S6r1207h04,S6r1209h04,S1b0115h19,S1b0115h23,S3f0328h05,S3f0328h24,S4h0405h01,S4j0413h01,S4j0413h20,S4k0423h19,S6q0925h04,S6q0925h23,S6q0925h24,S6q0926h23,S6q0927h04,S6q0929h20,S6q0929h21,S6r1203h23,S6r1204h03,S6r1205h23,S6r1208h05,S1aH1,S1b0115h06,S1b0115h22,S1c0119h02,S2aH7,S2e0219h06,S4g0401h01,S4h0405h04,S4i0411h20,S6n1217h03,S6n1217h04,S6q0924h06,S6q0924h21,S6q0925h21,S6q0927h02,S6q0927h20,S6q0927h21,S6q0927h22,S6q0928h01,S6q0928h22,S6q0928h24,S6q0929h19,S6r1206h05,S6r1206h22,S6r1206h24,S6r1209h05,S6r1209h21,S1b0115h04,S2e0219h01,S4g0401h19,S4i0411h01,S4i0411h24,S4k0423h20,S6p1229h05,S6q0924h03,S6q0925h05,S6q0926h02,S6q0927h19,S6q0928h06,S6q0929h24,S6q0930h06,S6q0930h19,S6r1204h05,S6r1206h04,S1c0119h04,S1c0119h19,S1c0119h20,S3aH8,S3f0328h23,S4g0401h06,S4h0405h20,S4i0411h02,S4j0413h04,S6p1229h20,S6q0924h05,S6q0925h22,S6q0926h04,S6q0926h19,S6q0930h22,S6r1204h02,S6r1207h06,S6r1207h20,S1aH8,S2d0217h02,S2e0219h23,S3f0328h04,S4g0401h03,S4h0405h22,S4h0405h24,S4k0423h03,S5aH1,S5l0515h05,S5l0515h21,S6aH7,S6n1217h23,S6o1220h01,S6p1229h01,S6q0924h23,S6q0924h24,S6q0926h21,S6q0928h05,S6q0929h22,S6q0930h21,S6r1204h19,S6r1204h20,S6r1205h03,S6r1206h20,S6r1206h21,S6r1207h05,S6r1208h23,S6r1209h22</t>
+    <t>S1aH4,S1b0115h09,S2aH2,S2d0217h10,S2d0217h14,S2e0219h18,S3f0328h16,S4aH6,S4h0405h13,S4h0405h16,S4h0405h18,S4i0411h15,S4j0413h08,S4j0413h14,S5l0515h07,S5l0515h09,S6o1220h12,S6p1229h11,S6p1229h17,S6q0930h07,S6q0930h08,S6r1204h15,S6r1205h13,S6r1206h12,S6r1209h13,S6r1209h18,S1c0119h09,S3f0328h09,S4g0401h15,S4h0405h09,S4i0411h08,S6n1217h18,S6p1229h09,S6q0924h15,S6q0926h18,S6q0928h07,S6q0928h11,S6q0929h09,S6q0929h18,S6q0930h09,S6r1204h08,S6r1205h18,S6r1206h14,S6r1207h12,S6r1209h09,S6r1209h12,S1aH3,S1b0115h12,S1c0119h13,S1c0119h14,S2d0217h13,S4g0401h11,S4h0405h07,S4h0405h17,S4i0411h07,S5l0515h15,S5l0515h16,S5l0515h17,S6n1217h16,S6o1220h11,S6q0927h09,S6q0927h10,S6q0930h12,S6r1203h13,S6r1203h17,S6r1204h13,S6r1206h17,S6r1207h15,S6r1207h17,S6r1209h08,S1b0115h13,S2d0217h12,S2e0219h07,S2e0219h11,S2e0219h15,S3f0328h17,S4g0401h16,S4i0411h13,S4i0411h17,S4k0423h14,S5aH4,S6aH3,S6aH4,S6o1220h10,S6p1229h08,S6q0925h12,S6q0925h13,S6q0926h13,S6q0927h08,S6q0928h08,S6q0928h12,S6q0930h10,S6r1204h11,S6r1205h08,S6r1206h08,S6r1209h07,S1c0119h15,S2e0219h10,S3aH2,S4j0413h11,S4j0413h16,S4k0423h18,S6n1217h10,S6n1217h15,S6o1220h14,S6q0924h08,S6q0924h14,S6q0924h17,S6q0926h09,S6q0927h16,S6q0928h14,S6q0929h08,S6q0929h10,S6q0929h17,S6r1203h12,S6r1208h16,S1aH6,S1c0119h10,S4h0405h15,S4i0411h14,S4j0413h07,S6n1217h08,S6n1217h12,S6p1229h12,S6q0927h14,S6q0927h15,S6q0927h17,S6q0929h07,S6q0929h11,S6r1203h14,S6r1203h15,S6r1204h17,S6r1208h07,S6r1208h15,S6r1208h18,S6r1209h10,S2d0217h18,S2e0219h09,S3aH4,S3f0328h10,S3f0328h13,S3f0328h15,S4aH3,S4aH4,S4j0413h15,S4j0413h17,S4k0423h10,S5l0515h10,S5l0515h11,S6n1217h09,S6o1220h13,S6o1220h15,S6q0924h10,S6q0924h12,S6q0925h18,S6q0926h07,S6q0926h16,S6q0927h13,S6q0928h15,S6q0928h18,S6q0930h15,S6q0930h16,S6r1203h10,S6r1207h08,S1aH2,S1b0115h07,S1b0115h08,S1b0115h17,S2aH3,S2d0217h17,S3aH6,S4i0411h16,S4j0413h12,S4k0423h11,S5aH6,S6aH6,S6n1217h14,S6q0925h09,S6q0925h16,S6q0925h17,S6q0929h12,S6r1203h08,S6r1203h11,S6r1204h07,S6r1205h16,S2d0217h11,S4g0401h17,S4g0401h18,S4h0405h08,S4j0413h10,S4j0413h13,S5l0515h08,S6n1217h13,S6o1220h09,S6o1220h17,S6p1229h16,S6q0924h11,S6q0925h07,S6q0925h11,S6q0926h08,S6q0928h16,S6q0930h17,S6r1204h16,S6r1204h18,S6r1205h14,S6r1206h07,S6r1206h13,S6r1207h09,S1b0115h11,S1c0119h07,S1c0119h08,S2d0217h07,S2d0217h15,S2e0219h13,S4aH2,S4h0405h12,S6n1217h11,S6o1220h07,S6q0924h13,S6q0925h10,S6q0927h11,S6q0928h09,S6q0928h17,S6q0930h14,S6r1204h10,S6r1205h10,S6r1205h15,S6r1207h10,S6r1207h16,S6r1209h15,S1c0119h17,S3aH3,S3f0328h14,S4g0401h09,S4h0405h14,S4i0411h10,S4i0411h11,S4i0411h12,S4j0413h09,S4k0423h07,S4k0423h09,S4k0423h16,S5l0515h12,S6n1217h07,S6n1217h17,S6q0925h08,S6q0926h14,S6q0929h14,S6r1204h14,S6r1205h11,S6r1207h18,S6r1208h11,S6r1209h16,S1aH5,S1b0115h10,S1b0115h16,S1c0119h16,S2aH4,S2aH5,S2d0217h08,S3f0328h11,S3f0328h18,S4g0401h08,S4g0401h14,S4h0405h10,S4j0413h18,S4k0423h12,S5aH2,S5aH5,S5l0515h14,S5l0515h18,S6aH2,S6p1229h10,S6q0924h18,S6q0926h11,S6q0927h18,S6r1203h09,S6r1205h09,S6r1208h09,S1b0115h15,S2e0219h16,S2e0219h17,S4aH5,S4h0405h11,S4i0411h18,S4k0423h17,S6o1220h16,S6p1229h18,S6q0924h09,S6q0927h07,S6q0928h10,S6q0929h15,S6r1203h07,S6r1205h12,S6r1206h16,S6r1207h14,S6r1208h08,S1b0115h18,S1c0119h11,S1c0119h12,S2e0219h14,S3f0328h07,S4g0401h07,S6aH5,S6q0924h07,S6q0924h16,S6q0925h15,S6q0928h13,S6q0930h11,S6q0930h13,S6q0930h18,S6r1204h12,S6r1205h07,S6r1206h09,S6r1207h11,S6r1208h17,S6r1209h14,S1b0115h14,S2d0217h09,S2d0217h16,S2e0219h08,S3f0328h08,S4g0401h12,S4i0411h09,S6o1220h08,S6p1229h13,S6p1229h14,S6q0925h14,S6q0926h12,S6q0926h15,S6q0927h12,S6r1203h16,S6r1204h09,S6r1205h17,S6r1206h15,S6r1207h07,S6r1208h10,S6r1209h17,S1c0119h18,S2aH6,S2e0219h12,S3aH5,S3f0328h12,S4g0401h10,S4g0401h13,S4k0423h08,S4k0423h13,S4k0423h15,S5aH3,S5l0515h13,S6o1220h18,S6p1229h07,S6p1229h15,S6q0926h10,S6q0926h17,S6q0929h13,S6q0929h16,S6r1203h18,S6r1206h10,S6r1206h11,S6r1206h18,S6r1207h13,S6r1208h12,S6r1208h13,S6r1208h14,S6r1209h11</t>
+  </si>
+  <si>
+    <t>S2d0217h19,S2e0219h21,S3f0328h20,S4aH1,S4g0401h05,S4h0405h03,S4i0411h21,S4j0413h03,S4j0413h06,S5l0515h01,S5l0515h02,S5l0515h19,S5l0515h23,S6aH1,S6o1220h21,S6p1229h23,S6q0930h03,S6r1208h24,S6r1209h02,S6r1209h24,S1aH1,S1b0115h06,S1b0115h22,S1c0119h02,S2aH7,S2e0219h06,S4g0401h01,S4h0405h04,S4i0411h20,S6n1217h03,S6n1217h04,S6q0924h06,S6q0924h21,S6q0925h21,S6q0927h02,S6q0927h20,S6q0927h21,S6q0927h22,S6q0928h01,S6q0928h22,S6q0928h24,S6q0929h19,S6r1206h05,S6r1206h22,S6r1206h24,S6r1209h05,S6r1209h21,S1aH7,S1b0115h01,S2d0217h04,S2d0217h24,S3f0328h02,S4aH7,S4g0401h23,S4h0405h19,S4h0405h23,S4i0411h06,S4i0411h22,S4j0413h21,S5aH7,S6n1217h05,S6q0925h01,S6q0926h01,S6q0926h06,S6q0927h05,S6q0927h24,S6q0929h03,S6q0930h02,S6q0930h20,S6r1203h03,S6r1203h22,S6r1204h04,S6r1205h24,S6r1206h01,S6r1206h06,S6r1206h19,S6r1208h01,S2e0219h22,S4g0401h24,S4h0405h02,S4h0405h06,S4j0413h23,S4k0423h21,S6p1229h19,S6q0925h03,S6q0927h06,S6q0930h01,S6r1203h01,S6r1204h22,S6r1205h22,S6r1206h02,S6r1207h03,S6r1208h03,S6r1209h19,S6r1209h23,S1c0119h04,S1c0119h19,S1c0119h20,S3aH8,S3f0328h23,S4g0401h06,S4h0405h20,S4i0411h02,S4j0413h04,S6p1229h20,S6q0924h05,S6q0925h22,S6q0926h04,S6q0926h19,S6q0930h22,S6r1204h02,S6r1207h06,S6r1207h20,S1b0115h21,S2d0217h23,S4g0401h22,S4h0405h05,S4j0413h19,S4j0413h24,S4k0423h22,S4k0423h23,S4k0423h24,S6aH8,S6n1217h24,S6o1220h02,S6o1220h04,S6o1220h19,S6q0925h06,S6q0926h03,S6q0926h05,S6q0926h20,S6q0926h24,S6q0927h03,S6q0928h19,S6q0929h04,S6r1203h05,S6r1205h05,S6r1205h19,S6r1206h03,S6r1209h01,S1b0115h04,S2e0219h01,S4g0401h19,S4i0411h01,S4i0411h24,S4k0423h20,S6p1229h05,S6q0924h03,S6q0925h05,S6q0926h02,S6q0927h19,S6q0928h06,S6q0929h24,S6q0930h06,S6q0930h19,S6r1204h05,S6r1206h04,S1b0115h05,S1b0115h20,S1b0115h24,S1c0119h21,S2d0217h21,S2e0219h20,S3f0328h06,S4h0405h21,S4j0413h05,S5l0515h20,S6n1217h21,S6o1220h06,S6p1229h22,S6q0924h04,S6q0928h02,S6q0930h05,S6r1203h19,S6r1204h24,S6r1205h02,S6r1207h01,S6r1208h21,S1b0115h02,S3aH1,S3f0328h03,S4i0411h05,S4j0413h02,S5l0515h22,S6o1220h05,S6p1229h02,S6q0924h20,S6q0925h19,S6q0928h23,S6q0929h02,S6r1204h06,S6r1205h04,S6r1207h21,S6r1207h24,S6r1208h06,S6r1208h20,S1c0119h22,S1c0119h23,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S2e0219h03,S3aH7,S3f0328h19,S4g0401h20,S5aH8,S5l0515h24,S6n1217h20,S6p1229h03,S6p1229h04,S6q0924h22,S6q0925h02,S6q0925h20,S6q0926h22,S6q0928h03,S6q0929h06,S6q0930h24,S6r1203h06,S6r1206h23,S6r1208h04,S6r1208h19,S6r1208h22,S1c0119h05,S1c0119h24,S2d0217h01,S2e0219h02,S2e0219h04,S2e0219h24,S4i0411h03,S4i0411h19,S5l0515h03,S5l0515h06,S6n1217h01,S6n1217h19,S6o1220h03,S6q0927h23,S6q0929h05,S6q0930h04,S6r1205h20,S6r1207h23,S6r1209h20,S1b0115h19,S1b0115h23,S3f0328h05,S3f0328h24,S4h0405h01,S4j0413h01,S4j0413h20,S4k0423h19,S6q0925h04,S6q0925h23,S6q0925h24,S6q0926h23,S6q0927h04,S6q0929h20,S6q0929h21,S6r1203h23,S6r1204h03,S6r1205h23,S6r1208h05,S1c0119h01,S2d0217h03,S3f0328h22,S4g0401h04,S6o1220h22,S6p1229h24,S6q0924h01,S6q0924h02,S6q0928h21,S6q0929h01,S6q0929h23,S6r1204h01,S6r1204h21,S6r1205h01,S6r1207h22,S6r1209h06,S1c0119h03,S2d0217h20,S2e0219h05,S2e0219h19,S3f0328h01,S4aH8,S4g0401h02,S4g0401h21,S4i0411h23,S4k0423h01,S4k0423h02,S5l0515h04,S6n1217h02,S6n1217h06,S6n1217h22,S6o1220h23,S6p1229h21,S6q0928h04,S6r1203h02,S6r1203h04,S6r1203h20,S6r1203h21,S6r1203h24,S6r1205h21,S6r1207h02,S6r1207h04,S6r1209h04,S1b0115h03,S1c0119h06,S2aH8,S3f0328h21,S4i0411h04,S4j0413h22,S4k0423h04,S4k0423h05,S4k0423h06,S6o1220h20,S6o1220h24,S6p1229h06,S6q0924h19,S6q0927h01,S6q0928h20,S6q0930h23,S6r1204h23,S6r1205h06,S6r1207h19,S6r1208h02,S6r1209h03,S1aH8,S2d0217h02,S2e0219h23,S3f0328h04,S4g0401h03,S4h0405h22,S4h0405h24,S4k0423h03,S5aH1,S5l0515h05,S5l0515h21,S6aH7,S6n1217h23,S6o1220h01,S6p1229h01,S6q0924h23,S6q0924h24,S6q0926h21,S6q0928h05,S6q0929h22,S6q0930h21,S6r1204h19,S6r1204h20,S6r1205h03,S6r1206h20,S6r1206h21,S6r1207h05,S6r1208h23,S6r1209h22</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -5137,7 +5137,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH7,S1b0115h01,S2d0217h04,S2d0217h24,S3f0328h02,S4aH7,S4g0401h23,S4h0405h19,S4h0405h23,S4i0411h06,S4i0411h22,S4j0413h21,S5aH7,S6n1217h05,S6q0925h01,S6q0926h01,S6q0926h06,S6q0927h05,S6q0927h24,S6q0929h03,S6q0930h02,S6q0930h20,S6r1203h03,S6r1203h22,S6r1204h04,S6r1205h24,S6r1206h01,S6r1206h06,S6r1206h19,S6r1208h01,S1b0115h03,S1c0119h06,S2aH8,S3f0328h21,S4i0411h04,S4j0413h22,S4k0423h04,S4k0423h05,S4k0423h06,S6o1220h20,S6o1220h24,S6p1229h06,S6q0924h19,S6q0927h01,S6q0928h20,S6q0930h23,S6r1204h23,S6r1205h06,S6r1207h19,S6r1208h02,S6r1209h03,S2d0217h19,S2e0219h21,S3f0328h20,S4aH1,S4g0401h05,S4h0405h03,S4i0411h21,S4j0413h03,S4j0413h06,S5l0515h01,S5l0515h02,S5l0515h19,S5l0515h23,S6aH1,S6o1220h21,S6p1229h23,S6q0930h03,S6r1208h24,S6r1209h02,S6r1209h24,S1c0119h01,S2d0217h03,S3f0328h22,S4g0401h04,S6o1220h22,S6p1229h24,S6q0924h01,S6q0924h02,S6q0928h21,S6q0929h01,S6q0929h23,S6r1204h01,S6r1204h21,S6r1205h01,S6r1207h22,S6r1209h06,S1b0115h21,S2d0217h23,S4g0401h22,S4h0405h05,S4j0413h19,S4j0413h24,S4k0423h22,S4k0423h23,S4k0423h24,S6aH8,S6n1217h24,S6o1220h02,S6o1220h04,S6o1220h19,S6q0925h06,S6q0926h03,S6q0926h05,S6q0926h20,S6q0926h24,S6q0927h03,S6q0928h19,S6q0929h04,S6r1203h05,S6r1205h05,S6r1205h19,S6r1206h03,S6r1209h01,S2e0219h22,S4g0401h24,S4h0405h02,S4h0405h06,S4j0413h23,S4k0423h21,S6p1229h19,S6q0925h03,S6q0927h06,S6q0930h01,S6r1203h01,S6r1204h22,S6r1205h22,S6r1206h02,S6r1207h03,S6r1208h03,S6r1209h19,S6r1209h23,S1b0115h02,S3aH1,S3f0328h03,S4i0411h05,S4j0413h02,S5l0515h22,S6o1220h05,S6p1229h02,S6q0924h20,S6q0925h19,S6q0928h23,S6q0929h02,S6r1204h06,S6r1205h04,S6r1207h21,S6r1207h24,S6r1208h06,S6r1208h20,S1c0119h22,S1c0119h23,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S2e0219h03,S3aH7,S3f0328h19,S4g0401h20,S5aH8,S5l0515h24,S6n1217h20,S6p1229h03,S6p1229h04,S6q0924h22,S6q0925h02,S6q0925h20,S6q0926h22,S6q0928h03,S6q0929h06,S6q0930h24,S6r1203h06,S6r1206h23,S6r1208h04,S6r1208h19,S6r1208h22,S1b0115h05,S1b0115h20,S1b0115h24,S1c0119h21,S2d0217h21,S2e0219h20,S3f0328h06,S4h0405h21,S4j0413h05,S5l0515h20,S6n1217h21,S6o1220h06,S6p1229h22,S6q0924h04,S6q0928h02,S6q0930h05,S6r1203h19,S6r1204h24,S6r1205h02,S6r1207h01,S6r1208h21,S1c0119h05,S1c0119h24,S2d0217h01,S2e0219h02,S2e0219h04,S2e0219h24,S4i0411h03,S4i0411h19,S5l0515h03,S5l0515h06,S6n1217h01,S6n1217h19,S6o1220h03,S6q0927h23,S6q0929h05,S6q0930h04,S6r1205h20,S6r1207h23,S6r1209h20,S1c0119h03,S2d0217h20,S2e0219h05,S2e0219h19,S3f0328h01,S4aH8,S4g0401h02,S4g0401h21,S4i0411h23,S4k0423h01,S4k0423h02,S5l0515h04,S6n1217h02,S6n1217h06,S6n1217h22,S6o1220h23,S6p1229h21,S6q0928h04,S6r1203h02,S6r1203h04,S6r1203h20,S6r1203h21,S6r1203h24,S6r1205h21,S6r1207h02,S6r1207h04,S6r1209h04,S1b0115h19,S1b0115h23,S3f0328h05,S3f0328h24,S4h0405h01,S4j0413h01,S4j0413h20,S4k0423h19,S6q0925h04,S6q0925h23,S6q0925h24,S6q0926h23,S6q0927h04,S6q0929h20,S6q0929h21,S6r1203h23,S6r1204h03,S6r1205h23,S6r1208h05,S1aH1,S1b0115h06,S1b0115h22,S1c0119h02,S2aH7,S2e0219h06,S4g0401h01,S4h0405h04,S4i0411h20,S6n1217h03,S6n1217h04,S6q0924h06,S6q0924h21,S6q0925h21,S6q0927h02,S6q0927h20,S6q0927h21,S6q0927h22,S6q0928h01,S6q0928h22,S6q0928h24,S6q0929h19,S6r1206h05,S6r1206h22,S6r1206h24,S6r1209h05,S6r1209h21,S1b0115h04,S2e0219h01,S4g0401h19,S4i0411h01,S4i0411h24,S4k0423h20,S6p1229h05,S6q0924h03,S6q0925h05,S6q0926h02,S6q0927h19,S6q0928h06,S6q0929h24,S6q0930h06,S6q0930h19,S6r1204h05,S6r1206h04,S1c0119h04,S1c0119h19,S1c0119h20,S3aH8,S3f0328h23,S4g0401h06,S4h0405h20,S4i0411h02,S4j0413h04,S6p1229h20,S6q0924h05,S6q0925h22,S6q0926h04,S6q0926h19,S6q0930h22,S6r1204h02,S6r1207h06,S6r1207h20,S1aH8,S2d0217h02,S2e0219h23,S3f0328h04,S4g0401h03,S4h0405h22,S4h0405h24,S4k0423h03,S5aH1,S5l0515h05,S5l0515h21,S6aH7,S6n1217h23,S6o1220h01,S6p1229h01,S6q0924h23,S6q0924h24,S6q0926h21,S6q0928h05,S6q0929h22,S6q0930h21,S6r1204h19,S6r1204h20,S6r1205h03,S6r1206h20,S6r1206h21,S6r1207h05,S6r1208h23,S6r1209h22</v>
+        <v>S2d0217h19,S2e0219h21,S3f0328h20,S4aH1,S4g0401h05,S4h0405h03,S4i0411h21,S4j0413h03,S4j0413h06,S5l0515h01,S5l0515h02,S5l0515h19,S5l0515h23,S6aH1,S6o1220h21,S6p1229h23,S6q0930h03,S6r1208h24,S6r1209h02,S6r1209h24,S1aH1,S1b0115h06,S1b0115h22,S1c0119h02,S2aH7,S2e0219h06,S4g0401h01,S4h0405h04,S4i0411h20,S6n1217h03,S6n1217h04,S6q0924h06,S6q0924h21,S6q0925h21,S6q0927h02,S6q0927h20,S6q0927h21,S6q0927h22,S6q0928h01,S6q0928h22,S6q0928h24,S6q0929h19,S6r1206h05,S6r1206h22,S6r1206h24,S6r1209h05,S6r1209h21,S1aH7,S1b0115h01,S2d0217h04,S2d0217h24,S3f0328h02,S4aH7,S4g0401h23,S4h0405h19,S4h0405h23,S4i0411h06,S4i0411h22,S4j0413h21,S5aH7,S6n1217h05,S6q0925h01,S6q0926h01,S6q0926h06,S6q0927h05,S6q0927h24,S6q0929h03,S6q0930h02,S6q0930h20,S6r1203h03,S6r1203h22,S6r1204h04,S6r1205h24,S6r1206h01,S6r1206h06,S6r1206h19,S6r1208h01,S2e0219h22,S4g0401h24,S4h0405h02,S4h0405h06,S4j0413h23,S4k0423h21,S6p1229h19,S6q0925h03,S6q0927h06,S6q0930h01,S6r1203h01,S6r1204h22,S6r1205h22,S6r1206h02,S6r1207h03,S6r1208h03,S6r1209h19,S6r1209h23,S1c0119h04,S1c0119h19,S1c0119h20,S3aH8,S3f0328h23,S4g0401h06,S4h0405h20,S4i0411h02,S4j0413h04,S6p1229h20,S6q0924h05,S6q0925h22,S6q0926h04,S6q0926h19,S6q0930h22,S6r1204h02,S6r1207h06,S6r1207h20,S1b0115h21,S2d0217h23,S4g0401h22,S4h0405h05,S4j0413h19,S4j0413h24,S4k0423h22,S4k0423h23,S4k0423h24,S6aH8,S6n1217h24,S6o1220h02,S6o1220h04,S6o1220h19,S6q0925h06,S6q0926h03,S6q0926h05,S6q0926h20,S6q0926h24,S6q0927h03,S6q0928h19,S6q0929h04,S6r1203h05,S6r1205h05,S6r1205h19,S6r1206h03,S6r1209h01,S1b0115h04,S2e0219h01,S4g0401h19,S4i0411h01,S4i0411h24,S4k0423h20,S6p1229h05,S6q0924h03,S6q0925h05,S6q0926h02,S6q0927h19,S6q0928h06,S6q0929h24,S6q0930h06,S6q0930h19,S6r1204h05,S6r1206h04,S1b0115h05,S1b0115h20,S1b0115h24,S1c0119h21,S2d0217h21,S2e0219h20,S3f0328h06,S4h0405h21,S4j0413h05,S5l0515h20,S6n1217h21,S6o1220h06,S6p1229h22,S6q0924h04,S6q0928h02,S6q0930h05,S6r1203h19,S6r1204h24,S6r1205h02,S6r1207h01,S6r1208h21,S1b0115h02,S3aH1,S3f0328h03,S4i0411h05,S4j0413h02,S5l0515h22,S6o1220h05,S6p1229h02,S6q0924h20,S6q0925h19,S6q0928h23,S6q0929h02,S6r1204h06,S6r1205h04,S6r1207h21,S6r1207h24,S6r1208h06,S6r1208h20,S1c0119h22,S1c0119h23,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S2e0219h03,S3aH7,S3f0328h19,S4g0401h20,S5aH8,S5l0515h24,S6n1217h20,S6p1229h03,S6p1229h04,S6q0924h22,S6q0925h02,S6q0925h20,S6q0926h22,S6q0928h03,S6q0929h06,S6q0930h24,S6r1203h06,S6r1206h23,S6r1208h04,S6r1208h19,S6r1208h22,S1c0119h05,S1c0119h24,S2d0217h01,S2e0219h02,S2e0219h04,S2e0219h24,S4i0411h03,S4i0411h19,S5l0515h03,S5l0515h06,S6n1217h01,S6n1217h19,S6o1220h03,S6q0927h23,S6q0929h05,S6q0930h04,S6r1205h20,S6r1207h23,S6r1209h20,S1b0115h19,S1b0115h23,S3f0328h05,S3f0328h24,S4h0405h01,S4j0413h01,S4j0413h20,S4k0423h19,S6q0925h04,S6q0925h23,S6q0925h24,S6q0926h23,S6q0927h04,S6q0929h20,S6q0929h21,S6r1203h23,S6r1204h03,S6r1205h23,S6r1208h05,S1c0119h01,S2d0217h03,S3f0328h22,S4g0401h04,S6o1220h22,S6p1229h24,S6q0924h01,S6q0924h02,S6q0928h21,S6q0929h01,S6q0929h23,S6r1204h01,S6r1204h21,S6r1205h01,S6r1207h22,S6r1209h06,S1c0119h03,S2d0217h20,S2e0219h05,S2e0219h19,S3f0328h01,S4aH8,S4g0401h02,S4g0401h21,S4i0411h23,S4k0423h01,S4k0423h02,S5l0515h04,S6n1217h02,S6n1217h06,S6n1217h22,S6o1220h23,S6p1229h21,S6q0928h04,S6r1203h02,S6r1203h04,S6r1203h20,S6r1203h21,S6r1203h24,S6r1205h21,S6r1207h02,S6r1207h04,S6r1209h04,S1b0115h03,S1c0119h06,S2aH8,S3f0328h21,S4i0411h04,S4j0413h22,S4k0423h04,S4k0423h05,S4k0423h06,S6o1220h20,S6o1220h24,S6p1229h06,S6q0924h19,S6q0927h01,S6q0928h20,S6q0930h23,S6r1204h23,S6r1205h06,S6r1207h19,S6r1208h02,S6r1209h03,S1aH8,S2d0217h02,S2e0219h23,S3f0328h04,S4g0401h03,S4h0405h22,S4h0405h24,S4k0423h03,S5aH1,S5l0515h05,S5l0515h21,S6aH7,S6n1217h23,S6o1220h01,S6p1229h01,S6q0924h23,S6q0924h24,S6q0926h21,S6q0928h05,S6q0929h22,S6q0930h21,S6r1204h19,S6r1204h20,S6r1205h03,S6r1206h20,S6r1206h21,S6r1207h05,S6r1208h23,S6r1209h22</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S1b0115h12,S1c0119h13,S1c0119h14,S2d0217h13,S4g0401h11,S4h0405h07,S4h0405h17,S4i0411h07,S5l0515h15,S5l0515h16,S5l0515h17,S6n1217h16,S6o1220h11,S6q0927h09,S6q0927h10,S6q0930h12,S6r1203h13,S6r1203h17,S6r1204h13,S6r1206h17,S6r1207h15,S6r1207h17,S6r1209h08,S1b0115h14,S2d0217h09,S2d0217h16,S2e0219h08,S3f0328h08,S4g0401h12,S4i0411h09,S6o1220h08,S6p1229h13,S6p1229h14,S6q0925h14,S6q0926h12,S6q0926h15,S6q0927h12,S6r1203h16,S6r1204h09,S6r1205h17,S6r1206h15,S6r1207h07,S6r1208h10,S6r1209h17,S1aH4,S1b0115h09,S2aH2,S2d0217h10,S2d0217h14,S2e0219h18,S3f0328h16,S4aH6,S4h0405h13,S4h0405h16,S4h0405h18,S4i0411h15,S4j0413h08,S4j0413h14,S5l0515h07,S5l0515h09,S6o1220h12,S6p1229h11,S6p1229h17,S6q0930h07,S6q0930h08,S6r1204h15,S6r1205h13,S6r1206h12,S6r1209h13,S6r1209h18,S1b0115h15,S2e0219h16,S2e0219h17,S4aH5,S4h0405h11,S4i0411h18,S4k0423h17,S6o1220h16,S6p1229h18,S6q0924h09,S6q0927h07,S6q0928h10,S6q0929h15,S6r1203h07,S6r1205h12,S6r1206h16,S6r1207h14,S6r1208h08,S1aH6,S1c0119h10,S4h0405h15,S4i0411h14,S4j0413h07,S6n1217h08,S6n1217h12,S6p1229h12,S6q0927h14,S6q0927h15,S6q0927h17,S6q0929h07,S6q0929h11,S6r1203h14,S6r1203h15,S6r1204h17,S6r1208h07,S6r1208h15,S6r1208h18,S6r1209h10,S1b0115h13,S2d0217h12,S2e0219h07,S2e0219h11,S2e0219h15,S3f0328h17,S4g0401h16,S4i0411h13,S4i0411h17,S4k0423h14,S5aH4,S6aH3,S6aH4,S6o1220h10,S6p1229h08,S6q0925h12,S6q0925h13,S6q0926h13,S6q0927h08,S6q0928h08,S6q0928h12,S6q0930h10,S6r1204h11,S6r1205h08,S6r1206h08,S6r1209h07,S2d0217h11,S4g0401h17,S4g0401h18,S4h0405h08,S4j0413h10,S4j0413h13,S5l0515h08,S6n1217h13,S6o1220h09,S6o1220h17,S6p1229h16,S6q0924h11,S6q0925h07,S6q0925h11,S6q0926h08,S6q0928h16,S6q0930h17,S6r1204h16,S6r1204h18,S6r1205h14,S6r1206h07,S6r1206h13,S6r1207h09,S1b0115h11,S1c0119h07,S1c0119h08,S2d0217h07,S2d0217h15,S2e0219h13,S4aH2,S4h0405h12,S6n1217h11,S6o1220h07,S6q0924h13,S6q0925h10,S6q0927h11,S6q0928h09,S6q0928h17,S6q0930h14,S6r1204h10,S6r1205h10,S6r1205h15,S6r1207h10,S6r1207h16,S6r1209h15,S1aH2,S1b0115h07,S1b0115h08,S1b0115h17,S2aH3,S2d0217h17,S3aH6,S4i0411h16,S4j0413h12,S4k0423h11,S5aH6,S6aH6,S6n1217h14,S6q0925h09,S6q0925h16,S6q0925h17,S6q0929h12,S6r1203h08,S6r1203h11,S6r1204h07,S6r1205h16,S1c0119h17,S3aH3,S3f0328h14,S4g0401h09,S4h0405h14,S4i0411h10,S4i0411h11,S4i0411h12,S4j0413h09,S4k0423h07,S4k0423h09,S4k0423h16,S5l0515h12,S6n1217h07,S6n1217h17,S6q0925h08,S6q0926h14,S6q0929h14,S6r1204h14,S6r1205h11,S6r1207h18,S6r1208h11,S6r1209h16,S1b0115h18,S1c0119h11,S1c0119h12,S2e0219h14,S3f0328h07,S4g0401h07,S6aH5,S6q0924h07,S6q0924h16,S6q0925h15,S6q0928h13,S6q0930h11,S6q0930h13,S6q0930h18,S6r1204h12,S6r1205h07,S6r1206h09,S6r1207h11,S6r1208h17,S6r1209h14,S1aH5,S1b0115h10,S1b0115h16,S1c0119h16,S2aH4,S2aH5,S2d0217h08,S3f0328h11,S3f0328h18,S4g0401h08,S4g0401h14,S4h0405h10,S4j0413h18,S4k0423h12,S5aH2,S5aH5,S5l0515h14,S5l0515h18,S6aH2,S6p1229h10,S6q0924h18,S6q0926h11,S6q0927h18,S6r1203h09,S6r1205h09,S6r1208h09,S1c0119h09,S3f0328h09,S4g0401h15,S4h0405h09,S4i0411h08,S6n1217h18,S6p1229h09,S6q0924h15,S6q0926h18,S6q0928h07,S6q0928h11,S6q0929h09,S6q0929h18,S6q0930h09,S6r1204h08,S6r1205h18,S6r1206h14,S6r1207h12,S6r1209h09,S6r1209h12,S2d0217h18,S2e0219h09,S3aH4,S3f0328h10,S3f0328h13,S3f0328h15,S4aH3,S4aH4,S4j0413h15,S4j0413h17,S4k0423h10,S5l0515h10,S5l0515h11,S6n1217h09,S6o1220h13,S6o1220h15,S6q0924h10,S6q0924h12,S6q0925h18,S6q0926h07,S6q0926h16,S6q0927h13,S6q0928h15,S6q0928h18,S6q0930h15,S6q0930h16,S6r1203h10,S6r1207h08,S1c0119h15,S2e0219h10,S3aH2,S4j0413h11,S4j0413h16,S4k0423h18,S6n1217h10,S6n1217h15,S6o1220h14,S6q0924h08,S6q0924h14,S6q0924h17,S6q0926h09,S6q0927h16,S6q0928h14,S6q0929h08,S6q0929h10,S6q0929h17,S6r1203h12,S6r1208h16,S1c0119h18,S2aH6,S2e0219h12,S3aH5,S3f0328h12,S4g0401h10,S4g0401h13,S4k0423h08,S4k0423h13,S4k0423h15,S5aH3,S5l0515h13,S6o1220h18,S6p1229h07,S6p1229h15,S6q0926h10,S6q0926h17,S6q0929h13,S6q0929h16,S6r1203h18,S6r1206h10,S6r1206h11,S6r1206h18,S6r1207h13,S6r1208h12,S6r1208h13,S6r1208h14,S6r1209h11</v>
+        <v>S1aH4,S1b0115h09,S2aH2,S2d0217h10,S2d0217h14,S2e0219h18,S3f0328h16,S4aH6,S4h0405h13,S4h0405h16,S4h0405h18,S4i0411h15,S4j0413h08,S4j0413h14,S5l0515h07,S5l0515h09,S6o1220h12,S6p1229h11,S6p1229h17,S6q0930h07,S6q0930h08,S6r1204h15,S6r1205h13,S6r1206h12,S6r1209h13,S6r1209h18,S1c0119h09,S3f0328h09,S4g0401h15,S4h0405h09,S4i0411h08,S6n1217h18,S6p1229h09,S6q0924h15,S6q0926h18,S6q0928h07,S6q0928h11,S6q0929h09,S6q0929h18,S6q0930h09,S6r1204h08,S6r1205h18,S6r1206h14,S6r1207h12,S6r1209h09,S6r1209h12,S1aH3,S1b0115h12,S1c0119h13,S1c0119h14,S2d0217h13,S4g0401h11,S4h0405h07,S4h0405h17,S4i0411h07,S5l0515h15,S5l0515h16,S5l0515h17,S6n1217h16,S6o1220h11,S6q0927h09,S6q0927h10,S6q0930h12,S6r1203h13,S6r1203h17,S6r1204h13,S6r1206h17,S6r1207h15,S6r1207h17,S6r1209h08,S1b0115h13,S2d0217h12,S2e0219h07,S2e0219h11,S2e0219h15,S3f0328h17,S4g0401h16,S4i0411h13,S4i0411h17,S4k0423h14,S5aH4,S6aH3,S6aH4,S6o1220h10,S6p1229h08,S6q0925h12,S6q0925h13,S6q0926h13,S6q0927h08,S6q0928h08,S6q0928h12,S6q0930h10,S6r1204h11,S6r1205h08,S6r1206h08,S6r1209h07,S1c0119h15,S2e0219h10,S3aH2,S4j0413h11,S4j0413h16,S4k0423h18,S6n1217h10,S6n1217h15,S6o1220h14,S6q0924h08,S6q0924h14,S6q0924h17,S6q0926h09,S6q0927h16,S6q0928h14,S6q0929h08,S6q0929h10,S6q0929h17,S6r1203h12,S6r1208h16,S1aH6,S1c0119h10,S4h0405h15,S4i0411h14,S4j0413h07,S6n1217h08,S6n1217h12,S6p1229h12,S6q0927h14,S6q0927h15,S6q0927h17,S6q0929h07,S6q0929h11,S6r1203h14,S6r1203h15,S6r1204h17,S6r1208h07,S6r1208h15,S6r1208h18,S6r1209h10,S2d0217h18,S2e0219h09,S3aH4,S3f0328h10,S3f0328h13,S3f0328h15,S4aH3,S4aH4,S4j0413h15,S4j0413h17,S4k0423h10,S5l0515h10,S5l0515h11,S6n1217h09,S6o1220h13,S6o1220h15,S6q0924h10,S6q0924h12,S6q0925h18,S6q0926h07,S6q0926h16,S6q0927h13,S6q0928h15,S6q0928h18,S6q0930h15,S6q0930h16,S6r1203h10,S6r1207h08,S1aH2,S1b0115h07,S1b0115h08,S1b0115h17,S2aH3,S2d0217h17,S3aH6,S4i0411h16,S4j0413h12,S4k0423h11,S5aH6,S6aH6,S6n1217h14,S6q0925h09,S6q0925h16,S6q0925h17,S6q0929h12,S6r1203h08,S6r1203h11,S6r1204h07,S6r1205h16,S2d0217h11,S4g0401h17,S4g0401h18,S4h0405h08,S4j0413h10,S4j0413h13,S5l0515h08,S6n1217h13,S6o1220h09,S6o1220h17,S6p1229h16,S6q0924h11,S6q0925h07,S6q0925h11,S6q0926h08,S6q0928h16,S6q0930h17,S6r1204h16,S6r1204h18,S6r1205h14,S6r1206h07,S6r1206h13,S6r1207h09,S1b0115h11,S1c0119h07,S1c0119h08,S2d0217h07,S2d0217h15,S2e0219h13,S4aH2,S4h0405h12,S6n1217h11,S6o1220h07,S6q0924h13,S6q0925h10,S6q0927h11,S6q0928h09,S6q0928h17,S6q0930h14,S6r1204h10,S6r1205h10,S6r1205h15,S6r1207h10,S6r1207h16,S6r1209h15,S1c0119h17,S3aH3,S3f0328h14,S4g0401h09,S4h0405h14,S4i0411h10,S4i0411h11,S4i0411h12,S4j0413h09,S4k0423h07,S4k0423h09,S4k0423h16,S5l0515h12,S6n1217h07,S6n1217h17,S6q0925h08,S6q0926h14,S6q0929h14,S6r1204h14,S6r1205h11,S6r1207h18,S6r1208h11,S6r1209h16,S1aH5,S1b0115h10,S1b0115h16,S1c0119h16,S2aH4,S2aH5,S2d0217h08,S3f0328h11,S3f0328h18,S4g0401h08,S4g0401h14,S4h0405h10,S4j0413h18,S4k0423h12,S5aH2,S5aH5,S5l0515h14,S5l0515h18,S6aH2,S6p1229h10,S6q0924h18,S6q0926h11,S6q0927h18,S6r1203h09,S6r1205h09,S6r1208h09,S1b0115h15,S2e0219h16,S2e0219h17,S4aH5,S4h0405h11,S4i0411h18,S4k0423h17,S6o1220h16,S6p1229h18,S6q0924h09,S6q0927h07,S6q0928h10,S6q0929h15,S6r1203h07,S6r1205h12,S6r1206h16,S6r1207h14,S6r1208h08,S1b0115h18,S1c0119h11,S1c0119h12,S2e0219h14,S3f0328h07,S4g0401h07,S6aH5,S6q0924h07,S6q0924h16,S6q0925h15,S6q0928h13,S6q0930h11,S6q0930h13,S6q0930h18,S6r1204h12,S6r1205h07,S6r1206h09,S6r1207h11,S6r1208h17,S6r1209h14,S1b0115h14,S2d0217h09,S2d0217h16,S2e0219h08,S3f0328h08,S4g0401h12,S4i0411h09,S6o1220h08,S6p1229h13,S6p1229h14,S6q0925h14,S6q0926h12,S6q0926h15,S6q0927h12,S6r1203h16,S6r1204h09,S6r1205h17,S6r1206h15,S6r1207h07,S6r1208h10,S6r1209h17,S1c0119h18,S2aH6,S2e0219h12,S3aH5,S3f0328h12,S4g0401h10,S4g0401h13,S4k0423h08,S4k0423h13,S4k0423h15,S5aH3,S5l0515h13,S6o1220h18,S6p1229h07,S6p1229h15,S6q0926h10,S6q0926h17,S6q0929h13,S6q0929h16,S6r1203h18,S6r1206h10,S6r1206h11,S6r1206h18,S6r1207h13,S6r1208h12,S6r1208h13,S6r1208h14,S6r1209h11</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -5782,7 +5782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134F2D5B-85E6-40D9-8B8F-C7FB999A1783}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294EBB72-F4AD-486D-8AC9-B3B5A0E2190E}">
   <dimension ref="B2:F683"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11377,7 +11377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31195925-AB89-4D3B-A44E-143F3FDE112E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A3EBF8-2BE8-4352-8984-DD5C067BD612}">
   <dimension ref="B2:O723"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11456,10 +11456,10 @@
         <v>782</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N4">
-        <v>0.10830924286565957</v>
+        <v>0.10847507741355956</v>
       </c>
       <c r="O4" t="s">
         <v>1514</v>
@@ -11491,10 +11491,10 @@
         <v>782</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N5">
-        <v>9.560747348173812E-2</v>
+        <v>0.24201623957307244</v>
       </c>
       <c r="O5" t="s">
         <v>1514</v>
@@ -11526,10 +11526,10 @@
         <v>782</v>
       </c>
       <c r="M6" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="N6">
-        <v>0.53877330642271426</v>
+        <v>0.10681866024325613</v>
       </c>
       <c r="O6" t="s">
         <v>1514</v>
@@ -11561,10 +11561,10 @@
         <v>782</v>
       </c>
       <c r="M7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N7">
-        <v>0.10847507741355956</v>
+        <v>9.560747348173812E-2</v>
       </c>
       <c r="O7" t="s">
         <v>1514</v>
@@ -11596,10 +11596,10 @@
         <v>782</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="N8">
-        <v>0.10681866024325613</v>
+        <v>0.53877330642271426</v>
       </c>
       <c r="O8" t="s">
         <v>1514</v>
@@ -11631,10 +11631,10 @@
         <v>782</v>
       </c>
       <c r="M9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N9">
-        <v>0.24201623957307244</v>
+        <v>0.10830924286565957</v>
       </c>
       <c r="O9" t="s">
         <v>1514</v>
@@ -30210,7 +30210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C51981-CE22-411C-83F1-0CDEE3E4DDC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF373419-FFCE-4895-B054-8C12FADE4C97}">
   <dimension ref="B2:O1443"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
